--- a/biology/Botanique/Laurus/Laurus.xlsx
+++ b/biology/Botanique/Laurus/Laurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Laurus (les lauriers) contient trois espèces d'arbres sempervirents appartenant à la famille des Lauracées.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Laurus azorica originaire des Açores (et apparemment du nord de l'Espagne).
 Laurus nobilis originaire du bassin méditerranéen et du Proche-Orient.
@@ -543,9 +557,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du mot Laurus on a dérivé les adjectifs "laurifolié" et "lauriphylle" qui désignent les espèces dont les feuilles ressemblent (par la forme et la texture) à celles des lauriers. Le terme "laurisylve" quant à lui désigne[1] les forêts dominées ou structurées par des espèces laurifoliées, que l'on rencontre particulièrement sous les climats humides et chauds, et donc souvent sur les pourtours océaniques ou maritimes chauds.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du mot Laurus on a dérivé les adjectifs "laurifolié" et "lauriphylle" qui désignent les espèces dont les feuilles ressemblent (par la forme et la texture) à celles des lauriers. Le terme "laurisylve" quant à lui désigne les forêts dominées ou structurées par des espèces laurifoliées, que l'on rencontre particulièrement sous les climats humides et chauds, et donc souvent sur les pourtours océaniques ou maritimes chauds.
 </t>
         </is>
       </c>
